--- a/gamedata/mt/stagedev.xlsx
+++ b/gamedata/mt/stagedev.xlsx
@@ -410,6 +410,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
@@ -425,6 +429,12 @@
         <v>dps</v>
       </c>
       <c r="E1" s="1" t="str">
+        <v>upatk</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <v>downatk</v>
+      </c>
+      <c r="G1" s="1" t="str">
         <v>equip</v>
       </c>
     </row>
@@ -440,6 +450,12 @@
       </c>
       <c r="D2" s="1">
         <v>80</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/gamedata/mt/stagedev.xlsx
+++ b/gamedata/mt/stagedev.xlsx
@@ -458,6 +458,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="str">
+        <v>level 2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1">
+        <v>95</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/gamedata/mt/stagedev.xlsx
+++ b/gamedata/mt/stagedev.xlsx
@@ -413,66 +413,96 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" t="str">
         <v>monsters</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" t="str">
         <v>hp</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" t="str">
         <v>dps</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" t="str">
         <v>upatk</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" t="str">
         <v>downatk</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" t="str">
         <v>equip</v>
+      </c>
+      <c r="H1" t="str">
+        <v>turn</v>
+      </c>
+      <c r="I1" t="str">
+        <v>lasthp</v>
+      </c>
+      <c r="J1" t="str">
+        <v>totalval</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>level 1</v>
-      </c>
-      <c r="B2" s="1" t="str">
+      <c r="A2" t="str">
+        <v>level001</v>
+      </c>
+      <c r="B2" t="str">
         <v>2000|3|3000|3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>120</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>80</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>0</v>
+      </c>
+      <c r="H2" t="str" xml:space="preserve">
+        <v> 4|5|2|2|2|2|1|5|1|1 </v>
+      </c>
+      <c r="I2" t="str" xml:space="preserve">
+        <v> 21|40|81|90|51|60|1|99|21|30 </v>
+      </c>
+      <c r="J2" t="str" xml:space="preserve">
+        <v> 100|500 </v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>level 2</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="A3" t="str">
+        <v>level002</v>
+      </c>
+      <c r="C3">
         <v>125</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>95</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>0</v>
+      </c>
+      <c r="H3" s="1" t="str" xml:space="preserve">
+        <v> 4|5|2|3|2|3|1|5|1|1 </v>
+      </c>
+      <c r="I3" t="str" xml:space="preserve">
+        <v> 21|40|1|100|1|100|1|99|21|30 </v>
+      </c>
+      <c r="J3" t="str" xml:space="preserve">
+        <v> 100|1000 </v>
       </c>
     </row>
   </sheetData>
